--- a/appointments.xlsx
+++ b/appointments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2235665d84da7569/Desktop/June Cohort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2B59C097550AD3464CEBE3D3471510344D07F283" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{107AC7BE-83EF-4EAD-998C-0DC27C2FAE3E}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_56BD1FD4953041440337EB4AC57D91137D75852C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A41AEAF6-B696-43A7-B618-2D50B61637D3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Patient Name</t>
   </si>
@@ -61,9 +61,6 @@
     <t>21 June 2025</t>
   </si>
   <si>
-    <t>2025-06-20 00:48:46</t>
-  </si>
-  <si>
     <t>Shivani Thakur</t>
   </si>
   <si>
@@ -82,7 +79,22 @@
     <t>22 June 2025</t>
   </si>
   <si>
-    <t>2025-06-20 00:50:42</t>
+    <t>Rohan Malik</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>headache, dizziness</t>
+  </si>
+  <si>
+    <t>23 June 2025</t>
+  </si>
+  <si>
+    <t>20-06-2025 09:33:45</t>
   </si>
 </sst>
 </file>
@@ -118,8 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,15 +435,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="5" max="5" width="21.5546875" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -475,31 +491,54 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="G2" s="1">
+        <v>45828.033865740741</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1">
+        <v>45828.035208333335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B4" t="s">
         <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
